--- a/outputFiles/excel-from-js.xlsx
+++ b/outputFiles/excel-from-js.xlsx
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Mkrtich...</v>
+        <v>Mkrtich</v>
       </c>
       <c r="C2" t="str">
         <v>mukuchkrajyan@gmail.com</v>
